--- a/GAME DEV/Roll-A-Ball-main/Copy of AGA206 Assessment 2 Checklist.xlsx
+++ b/GAME DEV/Roll-A-Ball-main/Copy of AGA206 Assessment 2 Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GAME DEV\Roll-A-Ball-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Roll-A-Ball\GAME DEV\Roll-A-Ball-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32F82A6-5067-4BC8-B5C8-42B576642859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8D80F5-F2F5-49F2-85F0-F68732C72B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29505" yWindow="795" windowWidth="26835" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29685" yWindow="1125" windowWidth="26835" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$29" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,7 +531,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,7 +587,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,8 +939,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1006,8 +1006,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1140,8 +1140,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1207,8 +1207,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1274,8 +1274,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1341,8 +1341,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1811,7 +1811,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1877,8 +1877,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1944,8 +1944,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2535,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D9" s="8">
         <f>K39</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2759,24 +2759,24 @@
       <c r="E18" s="7"/>
       <c r="F18" s="6" t="str">
         <f t="shared" ref="F18:F35" si="0">IF(J18,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>39</v>
       </c>
       <c r="J18" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
         <f>IF(J18=TRUE,D18,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>6</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="19">
@@ -2846,11 +2846,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>9</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="19">
@@ -2859,22 +2859,22 @@
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G22" s="17"/>
       <c r="J22" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>10</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="19">
@@ -2883,22 +2883,22 @@
       <c r="E23" s="7"/>
       <c r="F23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G23" s="17"/>
       <c r="J23" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>11</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="19">
@@ -3027,15 +3027,15 @@
       <c r="E29" s="7"/>
       <c r="F29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G29" s="17"/>
       <c r="J29" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -3086,11 +3086,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>19</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="19">
@@ -3099,22 +3099,22 @@
       <c r="E32" s="7"/>
       <c r="F32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G32" s="17"/>
       <c r="J32" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>20</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="19">
@@ -3257,7 +3257,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3411,8 +3411,8 @@
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3433,8 +3433,8 @@
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3477,8 +3477,8 @@
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3499,8 +3499,8 @@
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3521,8 +3521,8 @@
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3543,8 +3543,8 @@
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3698,7 +3698,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3719,8 +3719,8 @@
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>33</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3741,8 +3741,8 @@
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>34</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/GAME DEV/Roll-A-Ball-main/Copy of AGA206 Assessment 2 Checklist.xlsx
+++ b/GAME DEV/Roll-A-Ball-main/Copy of AGA206 Assessment 2 Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Roll-A-Ball\GAME DEV\Roll-A-Ball-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8D80F5-F2F5-49F2-85F0-F68732C72B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7A578-77FC-43FF-93B2-4D49BBC7F0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29685" yWindow="1125" windowWidth="26835" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29685" yWindow="645" windowWidth="26835" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Status</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Need to hook up to Title and Win Game Screen.</t>
+  </si>
+  <si>
+    <t>Fixed sound problems.</t>
+  </si>
+  <si>
+    <t>Need to change partcile picture. Unless I want to keep it as donald trumps mugshot</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1275,7 +1281,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2536,7 +2542,7 @@
   <dimension ref="B2:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2610,7 +2616,7 @@
       </c>
       <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2619,7 +2625,7 @@
       </c>
       <c r="D9" s="8">
         <f>K39</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2861,7 +2867,9 @@
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="J22" s="5" t="b">
         <v>1</v>
       </c>
@@ -2870,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>10</v>
       </c>
@@ -2885,7 +2893,9 @@
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="J23" s="5" t="b">
         <v>1</v>
       </c>
@@ -2907,15 +2917,15 @@
       <c r="E24" s="7"/>
       <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G24" s="17"/>
       <c r="J24" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -3257,7 +3267,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +3532,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/GAME DEV/Roll-A-Ball-main/Copy of AGA206 Assessment 2 Checklist.xlsx
+++ b/GAME DEV/Roll-A-Ball-main/Copy of AGA206 Assessment 2 Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Roll-A-Ball\GAME DEV\Roll-A-Ball-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7A578-77FC-43FF-93B2-4D49BBC7F0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC21BC2-070A-4403-B786-441E971B9AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29685" yWindow="645" windowWidth="26835" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Status</t>
   </si>
@@ -162,13 +162,19 @@
   </si>
   <si>
     <t>Need to change partcile picture. Unless I want to keep it as donald trumps mugshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/veronorro/Roll-A-Ball </t>
+  </si>
+  <si>
+    <t>epic metal feel oooh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -220,6 +226,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -356,12 +369,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -445,8 +459,13 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,11 +564,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,7 +604,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2541,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2590,7 +2609,9 @@
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
@@ -2616,7 +2637,7 @@
       </c>
       <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2625,7 +2646,7 @@
       </c>
       <c r="D9" s="8">
         <f>K39</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2815,15 +2836,17 @@
       <c r="E20" s="7"/>
       <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G20" s="17"/>
+        <v>Done</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J20" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15" x14ac:dyDescent="0.25">
@@ -3133,15 +3156,15 @@
       <c r="E33" s="7"/>
       <c r="F33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G33" s="17"/>
       <c r="J33" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="15" x14ac:dyDescent="0.25">
@@ -3157,15 +3180,15 @@
       <c r="E34" s="7"/>
       <c r="F34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G34" s="17"/>
       <c r="J34" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -3267,7 +3290,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3290,16 +3313,19 @@
       <formula>$F18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{F0043BBB-C1C2-480E-93A8-B6038FA4FD29}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId4" name="Check Box 11">
+            <control shapeId="1035" r:id="rId5" name="Check Box 11">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3321,7 +3347,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId5" name="Check Box 12">
+            <control shapeId="1036" r:id="rId6" name="Check Box 12">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3343,7 +3369,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId6" name="Check Box 13">
+            <control shapeId="1037" r:id="rId7" name="Check Box 13">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3365,7 +3391,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId7" name="Check Box 14">
+            <control shapeId="1038" r:id="rId8" name="Check Box 14">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3387,7 +3413,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId8" name="Check Box 30">
+            <control shapeId="1054" r:id="rId9" name="Check Box 30">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3409,7 +3435,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId9" name="Check Box 31">
+            <control shapeId="1055" r:id="rId10" name="Check Box 31">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3431,7 +3457,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId10" name="Check Box 32">
+            <control shapeId="1056" r:id="rId11" name="Check Box 32">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3453,7 +3479,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId11" name="Check Box 33">
+            <control shapeId="1057" r:id="rId12" name="Check Box 33">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3475,7 +3501,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId12" name="Check Box 35">
+            <control shapeId="1059" r:id="rId13" name="Check Box 35">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3497,7 +3523,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId13" name="Check Box 36">
+            <control shapeId="1060" r:id="rId14" name="Check Box 36">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3519,7 +3545,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId14" name="Check Box 38">
+            <control shapeId="1062" r:id="rId15" name="Check Box 38">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3541,7 +3567,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId15" name="Check Box 39">
+            <control shapeId="1063" r:id="rId16" name="Check Box 39">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3563,7 +3589,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId16" name="Check Box 41">
+            <control shapeId="1065" r:id="rId17" name="Check Box 41">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3585,7 +3611,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId17" name="Check Box 42">
+            <control shapeId="1066" r:id="rId18" name="Check Box 42">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3607,7 +3633,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId18" name="Check Box 43">
+            <control shapeId="1067" r:id="rId19" name="Check Box 43">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3629,7 +3655,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId19" name="Check Box 44">
+            <control shapeId="1068" r:id="rId20" name="Check Box 44">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3651,7 +3677,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId20" name="Check Box 46">
+            <control shapeId="1070" r:id="rId21" name="Check Box 46">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3673,7 +3699,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId21" name="Check Box 47">
+            <control shapeId="1071" r:id="rId22" name="Check Box 47">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3695,7 +3721,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId22" name="Check Box 48">
+            <control shapeId="1072" r:id="rId23" name="Check Box 48">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3717,7 +3743,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId23" name="Check Box 49">
+            <control shapeId="1073" r:id="rId24" name="Check Box 49">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3739,7 +3765,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId24" name="Check Box 51">
+            <control shapeId="1075" r:id="rId25" name="Check Box 51">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3761,7 +3787,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId25" name="Check Box 52">
+            <control shapeId="1076" r:id="rId26" name="Check Box 52">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3783,7 +3809,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId26" name="Check Box 53">
+            <control shapeId="1077" r:id="rId27" name="Check Box 53">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3805,7 +3831,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId27" name="Check Box 54">
+            <control shapeId="1078" r:id="rId28" name="Check Box 54">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3827,7 +3853,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId28" name="Check Box 55">
+            <control shapeId="1079" r:id="rId29" name="Check Box 55">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/GAME DEV/Roll-A-Ball-main/Copy of AGA206 Assessment 2 Checklist.xlsx
+++ b/GAME DEV/Roll-A-Ball-main/Copy of AGA206 Assessment 2 Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Roll-A-Ball\GAME DEV\Roll-A-Ball-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC21BC2-070A-4403-B786-441E971B9AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F3D817-254A-4E31-9A5D-E90FE60603FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29685" yWindow="645" windowWidth="26835" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Status</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>epic metal feel oooh</t>
+  </si>
+  <si>
+    <t>Added. Toggle not working. Have to hand in.</t>
+  </si>
+  <si>
+    <t>same as above</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -459,7 +465,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -2561,7 +2567,7 @@
   <dimension ref="B2:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2596,7 +2602,7 @@
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="28"/>
@@ -2609,7 +2615,7 @@
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="28"/>
@@ -3158,7 +3164,9 @@
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="J33" s="5" t="b">
         <v>1</v>
       </c>
@@ -3182,7 +3190,9 @@
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="J34" s="5" t="b">
         <v>1</v>
       </c>
